--- a/biology/Botanique/Patience_d'eau/Patience_d'eau.xlsx
+++ b/biology/Botanique/Patience_d'eau/Patience_d'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patience_d%27eau</t>
+          <t>Patience_d'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rumex hydrolapathum
 La Patience d'eau ou Patience aquatique (Rumex hydrolapathum) est une plante de la famille des Polygonacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patience_d%27eau</t>
+          <t>Patience_d'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande plante herbacée pouvant atteindre 2 m. Elle pousse dans des endroits humides, au bord des cours d'eau ou des eaux stagnantes.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Patience_d'eau</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patience_d%27eau</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : vert
 Période de floraison : juin-octobre
 Inflorescence : glomérules
